--- a/DataTest/Tiếp nhận/TC_22.xlsx
+++ b/DataTest/Tiếp nhận/TC_22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Check" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Check" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2053</v>
+        <v>3024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>46200602751</v>
+        <v>46200608024</v>
       </c>
       <c r="F2" t="n">
         <v>356572156</v>
@@ -825,7 +825,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>DN4127460129225</t>
+          <t>DN4127460130024</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -917,7 +917,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2054</v>
+        <v>3025</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>46200602752</v>
+        <v>46200608025</v>
       </c>
       <c r="F3" t="n">
         <v>356572156</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>DN4127460129226</t>
+          <t>DN4127460130025</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1147,7 +1147,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2053</v>
+        <v>3024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DN4127460129225</t>
+          <t>DN4127460130024</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1171,7 +1171,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2054</v>
+        <v>3025</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DN4127460129226</t>
+          <t>DN4127460130025</t>
         </is>
       </c>
       <c r="D3" t="n">
